--- a/2. Intent Classififcation/sammlung_intents.xlsx
+++ b/2. Intent Classififcation/sammlung_intents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3207ab19d48fbe9/Studium/Thesis_Chatbot/2. Intent Classififcation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AC049C7-EB7B-4DF4-AAB3-EAF8F479C9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{1AC049C7-EB7B-4DF4-AAB3-EAF8F479C9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A69DDB-6AA9-44D2-8E18-AB0F812AABA4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C95D2EFC-9A07-4784-8C5F-2EE3CBA81A8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t xml:space="preserve">Intent </t>
   </si>
@@ -161,9 +161,6 @@
     <t>"I can answer questions about HHN Professors"</t>
   </si>
   <si>
-    <t xml:space="preserve">Frage nach Namen von Professor mithiilfe von research_area </t>
-  </si>
-  <si>
     <t>"Which professor is an expert in &lt;research_area&gt;?", 
 "Who is doing &lt;reserach_area&gt;"</t>
   </si>
@@ -180,9 +177,6 @@
     <t>ProfNameQueryOffice</t>
   </si>
   <si>
-    <t>Frage nach Professor der in einem bestimmten Büro sitzt</t>
-  </si>
-  <si>
     <t>"Which professor sits in &lt;office&gt;?"</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
   </si>
   <si>
     <t>ProfNameQueryStudy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage nach Namen von Professor mithiilfe von study </t>
   </si>
   <si>
     <t>"Which professor is  in &lt;study&gt;?", 
@@ -220,24 +211,6 @@
     <t>ProfQueryStudyName</t>
   </si>
   <si>
-    <t>Frage nach Telefonnumer eines Professors</t>
-  </si>
-  <si>
-    <t>Frage nach Email eines Professors</t>
-  </si>
-  <si>
-    <t>Frage nach Büro eines Professors</t>
-  </si>
-  <si>
-    <t>Frage nach Postadresse eines Professors</t>
-  </si>
-  <si>
-    <t>Frage nach Reseearch Areas eines Professors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage nach Studeingang eines Professors </t>
-  </si>
-  <si>
     <t>"What is the number of &lt;full_name&gt;?"</t>
   </si>
   <si>
@@ -256,18 +229,6 @@
     <t>"What are the studies of &lt;full_name&gt;?"</t>
   </si>
   <si>
-    <t>FirstNameQuery</t>
-  </si>
-  <si>
-    <t>LastNameQuery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage nach Vornamen eines Professors mithilfe des Nachnamen </t>
-  </si>
-  <si>
-    <t>Frage nach Nachnamen eines Professors mithilfe des Vornamens</t>
-  </si>
-  <si>
     <t>Begrüßung vom User</t>
   </si>
   <si>
@@ -284,13 +245,91 @@
   </si>
   <si>
     <t>User fragt nach der Aufgabe des CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Intents </t>
+  </si>
+  <si>
+    <t>ProfNameQueryFirstName</t>
+  </si>
+  <si>
+    <t>ProfNameQueryLastName</t>
+  </si>
+  <si>
+    <t>ProfNameQueryTelephone</t>
+  </si>
+  <si>
+    <t>ProfNameQueryEmail</t>
+  </si>
+  <si>
+    <t>ProfNameQueryPostal</t>
+  </si>
+  <si>
+    <t>Frage nach Professor mithilfe vom Vornamen. 
+Output: title, first_name, last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frage nach Professor mithilfe vom Nachnamen
+Output: title, first_name, last_name
+</t>
+  </si>
+  <si>
+    <t>Frage nach Professor mithilfe der Telefonnummer
+Output: title, first_name, last_name</t>
+  </si>
+  <si>
+    <t>Frage nach Professor mithilfe der Email
+Output: title, first_name, last_name</t>
+  </si>
+  <si>
+    <t>Frage nach Professor der in einem bestimmten Büro sitzt
+Output: title, first_name, last_name</t>
+  </si>
+  <si>
+    <t>Frage nach Professor mithilfe der Postadresse
+Output: title, first_name, last_name</t>
+  </si>
+  <si>
+    <t>Frage nach Namen von Professor mithiilfe von research_area 
+Output: title, first_name, last_name</t>
+  </si>
+  <si>
+    <t>Frage nach Namen von Professor mithiilfe von study 
+Output: title, first_name, last_name</t>
+  </si>
+  <si>
+    <t>Frage nach Telefonnumer eines Professors
+Output: Telephone</t>
+  </si>
+  <si>
+    <t>Frage nach Email eines Professors
+Output: Email</t>
+  </si>
+  <si>
+    <t>Frage nach Büro eines Professors
+Output: Office</t>
+  </si>
+  <si>
+    <t>Frage nach Postadresse eines Professors
+Output: postal_address</t>
+  </si>
+  <si>
+    <t>Frage nach Reseearch Areas eines Professors
+Output: research_area</t>
+  </si>
+  <si>
+    <t>Frage nach Studeingang eines Professors 
+Output: study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +339,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -326,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -342,6 +389,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,28 +707,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FABA54-1926-463A-8528-95791B02588A}">
-  <dimension ref="C4:F22"/>
+  <dimension ref="B4:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="2"/>
     <col min="3" max="3" width="28.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="82.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
@@ -687,12 +740,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -701,12 +757,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -715,12 +772,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -729,12 +787,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -743,12 +802,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -757,12 +817,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -771,12 +832,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
@@ -785,133 +847,163 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
